--- a/Data/result/Invoice_Tracker_20.06.11_이석원.xlsx
+++ b/Data/result/Invoice_Tracker_20.06.11_이석원.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C581F47-A8B4-417C-A481-A7F4E5D47080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49DD4AA-2D8F-4B8A-91F4-BED5F3156812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="22332" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="744" windowWidth="22332" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoices_Total" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Company Name</t>
   </si>
@@ -105,40 +105,76 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>712160</t>
-  </si>
-  <si>
-    <t>IT Works</t>
-  </si>
-  <si>
-    <t>Via Prossima 12</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>IT</t>
+    <t>761105</t>
+  </si>
+  <si>
+    <t>Clipboard Papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strada Agrafei 67 </t>
+  </si>
+  <si>
+    <t>Brasov</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>276412</t>
+  </si>
+  <si>
+    <t>Megatronic Incorporated</t>
+  </si>
+  <si>
+    <t>Strada Sperantei la</t>
+  </si>
+  <si>
+    <t>Bucuresti</t>
+  </si>
+  <si>
+    <t>946242</t>
+  </si>
+  <si>
+    <t>Minitronic Systems</t>
+  </si>
+  <si>
+    <t>Rue Saint Denis</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>235581</t>
-  </si>
-  <si>
-    <t>Moretronic Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bauhaus Strasse 21 </t>
-  </si>
-  <si>
-    <t>Munchen</t>
+    <t>151985</t>
+  </si>
+  <si>
+    <t>Technology Lake</t>
+  </si>
+  <si>
+    <t>tax id 없음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hauptbahnhoff Strasse 21 </t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
   </si>
   <si>
     <t>Germany</t>
@@ -147,91 +183,73 @@
     <t>DE</t>
   </si>
   <si>
-    <t>686985</t>
-  </si>
-  <si>
-    <t>Office Supplies</t>
+    <t>266473</t>
+  </si>
+  <si>
+    <t>Volga Rivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoch Strasse 12 </t>
+  </si>
+  <si>
+    <t>Koln</t>
+  </si>
+  <si>
+    <t>570388</t>
+  </si>
+  <si>
+    <t>Purple Store</t>
+  </si>
+  <si>
+    <t>Moven Strasse 44</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>299832</t>
+  </si>
+  <si>
+    <t>Mecatronic Group</t>
   </si>
   <si>
     <t>0000-00-00</t>
   </si>
   <si>
-    <t xml:space="preserve"> Bulevardul Papetariei 57 </t>
-  </si>
-  <si>
-    <t>Bucuresti</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>913629</t>
-  </si>
-  <si>
-    <t>Star Software</t>
-  </si>
-  <si>
-    <t>tax id 없음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aleea Rozelor 84 </t>
+    <t>Bulevardul Unirii 11</t>
   </si>
   <si>
     <t>Iasi</t>
   </si>
   <si>
-    <t>753038</t>
-  </si>
-  <si>
-    <t>Bauhaus Strasse 21</t>
-  </si>
-  <si>
-    <t>407357</t>
-  </si>
-  <si>
-    <t>Maxitronic Limited</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bingauer Strasse 45 </t>
-  </si>
-  <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>781817</t>
-  </si>
-  <si>
-    <t>Telephone Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intrarea Telefoanelor 112 </t>
-  </si>
-  <si>
-    <t>409095</t>
-  </si>
-  <si>
-    <t>193194</t>
-  </si>
-  <si>
-    <t>Limited Adventure</t>
-  </si>
-  <si>
-    <t>Avenue Marcheariere 18</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>FR</t>
+    <t>207766</t>
+  </si>
+  <si>
+    <t>Hauptbahnhoff Strasse 21</t>
+  </si>
+  <si>
+    <t>866952</t>
+  </si>
+  <si>
+    <t>Hoch Strasse 12</t>
+  </si>
+  <si>
+    <t>720095</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rue Saint Denis 68 </t>
+  </si>
+  <si>
+    <t>382824</t>
+  </si>
+  <si>
+    <t>200914</t>
+  </si>
+  <si>
+    <t>Godmother Catering</t>
+  </si>
+  <si>
+    <t>Strada Flamanda 45</t>
   </si>
 </sst>
 </file>
@@ -2679,16 +2697,16 @@
         <v>22</v>
       </c>
       <c r="D4" s="39">
-        <v>42893</v>
+        <v>42944</v>
       </c>
       <c r="E4" s="40">
         <v>1</v>
       </c>
       <c r="F4" s="45">
-        <v>107099961.69599999</v>
+        <v>187402406.52000001</v>
       </c>
       <c r="G4" s="47">
-        <v>107099961.69599999</v>
+        <v>224883130.74000001</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -2700,197 +2718,235 @@
         <v>30</v>
       </c>
       <c r="D5" s="39">
-        <v>42810</v>
+        <v>42971</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
       </c>
       <c r="F5" s="45">
-        <v>386757046.80000001</v>
+        <v>86165530.879999995</v>
       </c>
       <c r="G5" s="47">
-        <v>464108456.16000003</v>
+        <v>86165530.879999995</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="41">
+        <v>42799</v>
       </c>
       <c r="E6" s="40">
         <v>1</v>
       </c>
       <c r="F6" s="45">
-        <v>56750366.75</v>
+        <v>86308385.280000001</v>
       </c>
       <c r="G6" s="47">
-        <v>68100383.75</v>
+        <v>86308385.280000001</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="41">
-        <v>43049</v>
+        <v>42791</v>
       </c>
       <c r="E7" s="40">
         <v>1</v>
       </c>
       <c r="F7" s="45">
-        <v>204828461.19</v>
+        <v>97490365.560000002</v>
       </c>
       <c r="G7" s="47">
-        <v>245794422.87</v>
+        <v>116988615.8</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="41">
-        <v>43087</v>
+        <v>43012</v>
       </c>
       <c r="E8" s="40">
         <v>1</v>
       </c>
       <c r="F8" s="45">
-        <v>220448013.93000001</v>
+        <v>249639536.63999999</v>
       </c>
       <c r="G8" s="47">
-        <v>220448013.93000001</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>299566958.07999998</v>
+      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="41">
-        <v>42950</v>
+        <v>42799</v>
       </c>
       <c r="E9" s="40">
         <v>1</v>
       </c>
       <c r="F9" s="45">
-        <v>12424329.75</v>
+        <v>145297338.56</v>
       </c>
       <c r="G9" s="47">
-        <v>14909195.699999999</v>
-      </c>
-      <c r="H9" s="13"/>
+        <v>145297338.56</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="41">
-        <v>42867</v>
+        <v>56</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="E10" s="40">
         <v>1</v>
       </c>
       <c r="F10" s="45">
-        <v>214274736.66</v>
+        <v>121430986.04000001</v>
       </c>
       <c r="G10" s="47">
-        <v>257129334.08000001</v>
+        <v>121430986.04000001</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="D11" s="41">
+        <v>42918</v>
       </c>
       <c r="E11" s="40">
         <v>1</v>
       </c>
       <c r="F11" s="45">
-        <v>243368097.66</v>
+        <v>46918018.895999998</v>
       </c>
       <c r="G11" s="47">
-        <v>292041447.75</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>46918018.895999998</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D12" s="41">
-        <v>43050</v>
+        <v>42774</v>
       </c>
       <c r="E12" s="40">
         <v>1</v>
       </c>
       <c r="F12" s="45">
-        <v>65322971.807999998</v>
+        <v>271096934.07999998</v>
       </c>
       <c r="G12" s="47">
-        <v>65322971.807999998</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>271096934.07999998</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="41">
+        <v>42846</v>
+      </c>
+      <c r="E13" s="40">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45">
+        <v>81051778.950000003</v>
+      </c>
+      <c r="G13" s="47">
+        <v>97262134.739999995</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="38"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="13"/>
+      <c r="B14" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="41">
+        <v>42853</v>
+      </c>
+      <c r="E14" s="40">
+        <v>1</v>
+      </c>
+      <c r="F14" s="45">
+        <v>223539078.56</v>
+      </c>
+      <c r="G14" s="47">
+        <v>223539078.56</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="38"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="47"/>
+      <c r="B15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="41">
+        <v>43063</v>
+      </c>
+      <c r="E15" s="40">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45">
+        <v>213574429.91999999</v>
+      </c>
+      <c r="G15" s="47">
+        <v>213574429.91999999</v>
+      </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2926,17 +2982,17 @@
       </c>
       <c r="C19" s="26" t="str">
         <f>"Total Invoices: "&amp;SUBTOTAL(103,InvoicesMain8[Invoice '#])</f>
-        <v>Total Invoices: 9</v>
+        <v>Total Invoices: 12</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="36"/>
       <c r="F19" s="46">
         <f>SUBTOTAL(109,InvoicesMain8[Unit Price])</f>
-        <v>1511273986.2440004</v>
+        <v>1809914789.8859999</v>
       </c>
       <c r="G19" s="46">
         <f>SUBTOTAL(109,InvoicesMain8[Invoice Total])</f>
-        <v>1734954187.7440002</v>
+        <v>1933031541.5759997</v>
       </c>
       <c r="H19" s="28"/>
     </row>
@@ -3024,7 +3080,7 @@
     <row r="4" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="str">
         <f t="shared" ref="B4" si="0">C4&amp; " - "&amp;D4</f>
-        <v>1 - IT Works</v>
+        <v>1 - Clipboard Papers</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -3044,13 +3100,15 @@
       <c r="H4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="24">
+        <v>428</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="e">
@@ -3070,280 +3128,350 @@
         <v>32</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="24">
+        <v>428</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="str">
         <f t="shared" ref="B6:B17" si="1">C6&amp; " - "&amp;D6</f>
-        <v>3 - Office Supplies</v>
+        <v>3 - Minitronic Systems</v>
       </c>
       <c r="C6" s="14">
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="I6" s="24">
+        <v>188</v>
+      </c>
+      <c r="J6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="K6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>4 - Star Software</v>
+        <v>4 - Technology Lake</v>
       </c>
       <c r="C7" s="14">
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="G7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>42</v>
+      <c r="I7" s="24">
+        <v>196</v>
       </c>
       <c r="J7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>5 - Moretronic Intelligence</v>
+        <v>5 - Volga Rivers</v>
       </c>
       <c r="C8" s="14">
         <v>5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="I8" s="24">
+        <v>196</v>
       </c>
       <c r="J8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>6 - Maxitronic Limited</v>
+        <v>6 - Purple Store</v>
       </c>
       <c r="C9" s="14">
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="I9" s="24">
+        <v>196</v>
       </c>
       <c r="J9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>7 - Telephone Systems</v>
+        <v>7 - Mecatronic Group</v>
       </c>
       <c r="C10" s="14">
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="I10" s="24">
+        <v>428</v>
       </c>
       <c r="J10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="17"/>
     </row>
     <row r="11" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>8 - Moretronic Intelligence</v>
+        <v>8 - Technology Lake</v>
       </c>
       <c r="C11" s="14">
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="I11" s="24">
+        <v>196</v>
       </c>
       <c r="J11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="17"/>
     </row>
     <row r="12" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>9 - Limited Adventure</v>
+        <v>9 - Volga Rivers</v>
       </c>
       <c r="C12" s="14">
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="I12" s="24">
+        <v>196</v>
       </c>
       <c r="J12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="17"/>
     </row>
     <row r="13" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+        <v>10 - Minitronic Systems</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="24">
+        <v>188</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+        <v>11 - Technology Lake</v>
+      </c>
+      <c r="C14" s="14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="24">
+        <v>196</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+        <v>12 - Godmother Catering</v>
+      </c>
+      <c r="C15" s="14">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="24">
+        <v>428</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="str">
@@ -3378,7 +3506,7 @@
     <row r="18" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="str">
         <f>C5&amp; " - "&amp;D5</f>
-        <v>2 - Moretronic Intelligence</v>
+        <v>2 - Megatronic Incorporated</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
@@ -3396,7 +3524,7 @@
       </c>
       <c r="C19" s="25" t="str">
         <f>"Total Customers: "&amp;SUBTOTAL(103,CustomerList7[Company '#])</f>
-        <v>Total Customers: 9</v>
+        <v>Total Customers: 12</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -3425,21 +3553,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3664,19 +3792,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088E6A8D-8506-4921-9AAC-35C577A39F76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63A445B-6F4E-403F-A36E-68D87D4B8C1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D63A445B-6F4E-403F-A36E-68D87D4B8C1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088E6A8D-8506-4921-9AAC-35C577A39F76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
